--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H2">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I2">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J2">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N2">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O2">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P2">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q2">
-        <v>76.34447698355601</v>
+        <v>227.9228443667873</v>
       </c>
       <c r="R2">
-        <v>687.1002928520041</v>
+        <v>2051.305599301086</v>
       </c>
       <c r="S2">
-        <v>0.2482662849755761</v>
+        <v>0.2895173926895209</v>
       </c>
       <c r="T2">
-        <v>0.2482662849755761</v>
+        <v>0.2895173926895209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H3">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I3">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J3">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.998014</v>
       </c>
       <c r="O3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q3">
-        <v>134.8210677328624</v>
+        <v>287.0818209485514</v>
       </c>
       <c r="R3">
-        <v>1213.389609595762</v>
+        <v>2583.736388536962</v>
       </c>
       <c r="S3">
-        <v>0.4384275974500131</v>
+        <v>0.3646636673058996</v>
       </c>
       <c r="T3">
-        <v>0.438427597450013</v>
+        <v>0.3646636673058996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H4">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I4">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J4">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N4">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q4">
-        <v>43.97508631707467</v>
+        <v>176.5861115210267</v>
       </c>
       <c r="R4">
-        <v>395.775776853672</v>
+        <v>1589.27500368924</v>
       </c>
       <c r="S4">
-        <v>0.143003551046292</v>
+        <v>0.2243072682546711</v>
       </c>
       <c r="T4">
-        <v>0.143003551046292</v>
+        <v>0.2243072682546711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.89432766666667</v>
+        <v>61.526261</v>
       </c>
       <c r="H5">
-        <v>86.68298300000001</v>
+        <v>184.578783</v>
       </c>
       <c r="I5">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="J5">
-        <v>0.934426807200427</v>
+        <v>0.9684015388399598</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N5">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q5">
-        <v>32.20537683120278</v>
+        <v>70.78426105394567</v>
       </c>
       <c r="R5">
-        <v>289.848391480825</v>
+        <v>637.058349485511</v>
       </c>
       <c r="S5">
-        <v>0.1047293737285459</v>
+        <v>0.08991321058986838</v>
       </c>
       <c r="T5">
-        <v>0.1047293737285459</v>
+        <v>0.08991321058986838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.567964</v>
       </c>
       <c r="I6">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J6">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N6">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O6">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P6">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q6">
-        <v>0.500224069648</v>
+        <v>0.7013372191208889</v>
       </c>
       <c r="R6">
-        <v>4.502016626832001</v>
+        <v>6.312034972088</v>
       </c>
       <c r="S6">
-        <v>0.001626689661566771</v>
+        <v>0.0008908686781270578</v>
       </c>
       <c r="T6">
-        <v>0.001626689661566771</v>
+        <v>0.0008908686781270577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.567964</v>
       </c>
       <c r="I7">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J7">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.998014</v>
       </c>
       <c r="O7">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P7">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q7">
         <v>0.883374224832889</v>
@@ -883,10 +883,10 @@
         <v>7.950368023496001</v>
       </c>
       <c r="S7">
-        <v>0.002872664084000192</v>
+        <v>0.001122099906454189</v>
       </c>
       <c r="T7">
-        <v>0.002872664084000192</v>
+        <v>0.001122099906454189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.567964</v>
       </c>
       <c r="I8">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J8">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N8">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O8">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P8">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q8">
-        <v>0.2881334381973333</v>
+        <v>0.5433698966577779</v>
       </c>
       <c r="R8">
-        <v>2.593200943776</v>
+        <v>4.890329069920001</v>
       </c>
       <c r="S8">
-        <v>0.0009369874692297589</v>
+        <v>0.0006902117959407935</v>
       </c>
       <c r="T8">
-        <v>0.0009369874692297587</v>
+        <v>0.0006902117959407936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.567964</v>
       </c>
       <c r="I9">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668077</v>
       </c>
       <c r="J9">
-        <v>0.006122548725910637</v>
+        <v>0.002979850677668078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N9">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O9">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P9">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q9">
-        <v>0.2110159804555556</v>
+        <v>0.2178089561097778</v>
       </c>
       <c r="R9">
-        <v>1.8991438241</v>
+        <v>1.960280604988</v>
       </c>
       <c r="S9">
-        <v>0.0006862075111139153</v>
+        <v>0.0002766702971460377</v>
       </c>
       <c r="T9">
-        <v>0.0006862075111139152</v>
+        <v>0.0002766702971460377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H10">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I10">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J10">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N10">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O10">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P10">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q10">
-        <v>1.317643769096</v>
+        <v>2.397657196021111</v>
       </c>
       <c r="R10">
-        <v>11.858793921864</v>
+        <v>21.57891476419</v>
       </c>
       <c r="S10">
-        <v>0.004284874772868511</v>
+        <v>0.003045607218020716</v>
       </c>
       <c r="T10">
-        <v>0.00428487477286851</v>
+        <v>0.003045607218020715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H11">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I11">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J11">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.998014</v>
       </c>
       <c r="O11">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P11">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q11">
-        <v>2.326902309899111</v>
+        <v>3.019985977081112</v>
       </c>
       <c r="R11">
-        <v>20.942120789092</v>
+        <v>27.17987379373</v>
       </c>
       <c r="S11">
-        <v>0.007566904834571979</v>
+        <v>0.003836115982461152</v>
       </c>
       <c r="T11">
-        <v>0.007566904834571976</v>
+        <v>0.003836115982461152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H12">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I12">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J12">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N12">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O12">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P12">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q12">
-        <v>0.7589743327946665</v>
+        <v>1.857615291622223</v>
       </c>
       <c r="R12">
-        <v>6.830768995151999</v>
+        <v>16.7185376246</v>
       </c>
       <c r="S12">
-        <v>0.002468125337152212</v>
+        <v>0.002359622780879174</v>
       </c>
       <c r="T12">
-        <v>0.002468125337152211</v>
+        <v>0.002359622780879174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4986926666666666</v>
+        <v>0.6472316666666668</v>
       </c>
       <c r="H13">
-        <v>1.496078</v>
+        <v>1.941695</v>
       </c>
       <c r="I13">
-        <v>0.01612744901571743</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="J13">
-        <v>0.01612744901571742</v>
+        <v>0.01018719700821657</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N13">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O13">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P13">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q13">
-        <v>0.5558386904944443</v>
+        <v>0.7446221257572223</v>
       </c>
       <c r="R13">
-        <v>5.002548214449999</v>
+        <v>6.701599131815001</v>
       </c>
       <c r="S13">
-        <v>0.001807544071124726</v>
+        <v>0.0009458510268555326</v>
       </c>
       <c r="T13">
-        <v>0.001807544071124726</v>
+        <v>0.0009458510268555326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H14">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I14">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J14">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N14">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O14">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P14">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q14">
-        <v>3.539588807244</v>
+        <v>4.338014776145555</v>
       </c>
       <c r="R14">
-        <v>31.856299265196</v>
+        <v>39.04213298531</v>
       </c>
       <c r="S14">
-        <v>0.01151046674541862</v>
+        <v>0.005510332809892267</v>
       </c>
       <c r="T14">
-        <v>0.01151046674541862</v>
+        <v>0.005510332809892265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H15">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I15">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J15">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.998014</v>
       </c>
       <c r="O15">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P15">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q15">
-        <v>6.250761825648667</v>
+        <v>5.463977008085555</v>
       </c>
       <c r="R15">
-        <v>56.25685643083801</v>
+        <v>49.17579307277001</v>
       </c>
       <c r="S15">
-        <v>0.02032698995442986</v>
+        <v>0.006940578429034973</v>
       </c>
       <c r="T15">
-        <v>0.02032698995442985</v>
+        <v>0.006940578429034973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H16">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I16">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J16">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N16">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O16">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P16">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q16">
-        <v>2.038834103992</v>
+        <v>3.360931911711111</v>
       </c>
       <c r="R16">
-        <v>18.349506935928</v>
+        <v>30.2483872054</v>
       </c>
       <c r="S16">
-        <v>0.006630129495662497</v>
+        <v>0.004269200161962351</v>
       </c>
       <c r="T16">
-        <v>0.006630129495662496</v>
+        <v>0.004269200161962351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.339639</v>
+        <v>1.171018333333333</v>
       </c>
       <c r="H17">
-        <v>4.018917</v>
+        <v>3.513055</v>
       </c>
       <c r="I17">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="J17">
-        <v>0.04332319505794486</v>
+        <v>0.01843141347415545</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N17">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O17">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P17">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q17">
-        <v>1.493150465741667</v>
+        <v>1.347224194326111</v>
       </c>
       <c r="R17">
-        <v>13.438354191675</v>
+        <v>12.125017748935</v>
       </c>
       <c r="S17">
-        <v>0.004855608862433892</v>
+        <v>0.001711302073265864</v>
       </c>
       <c r="T17">
-        <v>0.004855608862433891</v>
+        <v>0.001711302073265864</v>
       </c>
     </row>
   </sheetData>
